--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2753.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2753.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161165245080828</v>
+        <v>1.741185426712036</v>
       </c>
       <c r="B1">
-        <v>2.420994672531861</v>
+        <v>2.238624811172485</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.393944501876831</v>
       </c>
       <c r="D1">
-        <v>2.367273871513607</v>
+        <v>3.130728483200073</v>
       </c>
       <c r="E1">
-        <v>1.223034982680828</v>
+        <v>1.81594979763031</v>
       </c>
     </row>
   </sheetData>
